--- a/biology/Zoologie/Bihoreau_goisagi/Bihoreau_goisagi.xlsx
+++ b/biology/Zoologie/Bihoreau_goisagi/Bihoreau_goisagi.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Gorsachius goisagi
 Le Bihoreau goisagi (Gorsachius goisagi) est une espèce d'oiseau de la famille des ardéidés qui se retrouve en Extrême-Orient.
@@ -512,7 +524,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce bihoreau ne se reproduit qu’au Japon. Il hiverne principalement aux Philippines et dans une moindre mesure au sud du Japon, à Taïwan et dans le sud-est de la Chine. Pendant la migration, il a tendance à se disperser et à se retrouver en dehors des aires de nidification ou d’hivernage habituelles comme en Corée du Sud et parfois dans l’est de la Russie ou en Indonésie.
 </t>
@@ -543,7 +557,9 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Bihoreau goisagi fréquente les cours d’eau et les marais des milieux forestiers.
 </t>
@@ -574,7 +590,9 @@
           <t>Nidification</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Il niche en solitaire dans des arbres de 7 à 20 mètres de haut. Le nid est un amalgame grossier de bâtonnets placé sur branche touffue. Les œufs sont au nombre de 3 à 4.
 </t>
@@ -605,7 +623,9 @@
           <t>Conservation</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Bihoreau goisagi est rare et en danger d’extinction. On estime la population à moins de 1000 individus. La déforestation est la principale cause de son déclin.
 </t>
